--- a/Resource/Prototype northern beaches.xlsx
+++ b/Resource/Prototype northern beaches.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troycassels/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tracy Lao\Desktop\Project-1\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EDA79F-EAF1-4982-9D8B-5C4BC196E10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" tabRatio="500"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prototype northern beaches" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -110,7 +122,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -164,6 +176,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -431,22 +446,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="78.75" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -488,7 +503,7 @@
         <v>0.69862894070386861</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -510,7 +525,7 @@
         <v>0.57397494619502232</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -532,7 +547,7 @@
         <v>0.72097003240723878</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -554,7 +569,7 @@
         <v>0.72128987517337029</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -576,7 +591,7 @@
         <v>0.62586624937664437</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -598,7 +613,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -620,7 +635,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -642,7 +657,7 @@
         <v>0.72742427399647658</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -664,7 +679,7 @@
         <v>0.70400649602303134</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -686,7 +701,7 @@
         <v>0.70527225583405362</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -708,7 +723,7 @@
         <v>0.55943067062205076</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -730,7 +745,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -752,7 +767,7 @@
         <v>0.63543545531267065</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -774,7 +789,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -796,7 +811,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -818,7 +833,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -840,7 +855,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -862,7 +877,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>24</v>
       </c>
